--- a/01_Analysis&Design/DataMart_templetes_0714.xlsx
+++ b/01_Analysis&Design/DataMart_templetes_0714.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai_x\source\00_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI-X\project\github\01_Analysis&amp;Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4015786-EBDA-45A4-8546-E5D0D36BF9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B74CB3-439A-4153-ADA8-9EDFF057298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{5E0B9F74-E7C2-4360-A066-8EF393EF983F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5E0B9F74-E7C2-4360-A066-8EF393EF983F}"/>
   </bookViews>
   <sheets>
     <sheet name="최종병합버전(주간)" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="152">
   <si>
     <t>연월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,57 @@
   </si>
   <si>
     <t>각 품목 선택시 디폴트로 전체 선택 or 미리 선택될 품종, 등급을 설정필요 (일간과 맞춤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gds_mclsf_nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crop_full_code</t>
+  </si>
+  <si>
+    <t>crop_full_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직팜산지이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_sanji_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_sanji_nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crop_full_code[:4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -942,23 +993,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AF23C1-6B11-4261-98D6-480BA855DDF1}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="3" width="8.796875" customWidth="1"/>
-    <col min="21" max="35" width="8.796875" style="3"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="3" width="8.75" customWidth="1"/>
+    <col min="21" max="35" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35">
       <c r="H2" t="s">
         <v>58</v>
       </c>
@@ -966,7 +1017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35">
       <c r="H3" t="s">
         <v>54</v>
       </c>
@@ -1049,7 +1100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1156,7 +1207,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -1292,19 +1343,19 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="2" max="4" width="8.796875" customWidth="1"/>
-    <col min="22" max="41" width="8.796875" style="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="4" width="8.75" customWidth="1"/>
+    <col min="22" max="41" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41">
       <c r="T2" t="s">
         <v>62</v>
       </c>
@@ -1372,7 +1423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1570,20 +1621,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE826B5-A0B9-4E7D-81E8-7EF08E5663F0}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="11" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1591,12 +1645,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -1604,27 +1658,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1707,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1682,67 +1736,248 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1753,20 +1988,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA572CF5-1F24-4428-A555-227D841DC6C1}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1774,12 +2009,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -1787,27 +2022,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1836,9 +2071,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1865,12 +2100,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1899,9 +2134,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -1926,6 +2161,111 @@
       </c>
       <c r="I18" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2282,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,292 +2295,292 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="47.09765625" customWidth="1"/>
+    <col min="1" max="1" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1">
       <c r="A51" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1">
       <c r="A52" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1">
       <c r="A53" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1">
       <c r="A54" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1">
       <c r="A55" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1">
       <c r="A56" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1">
       <c r="A58" s="5" t="s">
         <v>120</v>
       </c>
